--- a/resources/data-imports/items/Alchemy.xlsx
+++ b/resources/data-imports/items/Alchemy.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D13F9F-5759-FC4A-8041-61A064ED216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -201,6 +185,21 @@
     <t>drop_location_id</t>
   </si>
   <si>
+    <t>xp_bonus</t>
+  </si>
+  <si>
+    <t>ignores_caps</t>
+  </si>
+  <si>
+    <t>can_use_on_other_items</t>
+  </si>
+  <si>
+    <t>holy_level</t>
+  </si>
+  <si>
+    <t>holy_stacks</t>
+  </si>
+  <si>
     <t>Bland Potion</t>
   </si>
   <si>
@@ -397,14 +396,25 @@
   </si>
   <si>
     <t>Adds durability to your character for a limited amount of time</t>
+  </si>
+  <si>
+    <t>Simple Blessed Oil</t>
+  </si>
+  <si>
+    <t>A simple blessed oil that can be applied to items to give specific stat bonuses. Having multiple stacks of holy oil on multiple items increases a characters holy bonus which can help with enemies in Hell and Purgatory. Holy oils can only be used at the Purgatory Smiths House and will as a small % of stat increase as well as Devoidance % increase. Holy items can also increase your resistance to Voidance and Devoidance as well as reduce enemies Voidance and Devoidance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -419,33 +429,21 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -735,66 +733,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:BI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="140" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="556" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,19 +977,34 @@
       <c r="BD1" t="s">
         <v>55</v>
       </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61">
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -999,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1032,13 +1061,7 @@
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AW2">
         <v>0</v>
@@ -1061,19 +1084,22 @@
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61">
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1097,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1159,19 +1185,22 @@
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61">
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1195,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="AC4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1257,19 +1286,22 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61">
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1293,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="AC5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1355,19 +1387,22 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61">
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1391,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="AC6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1453,19 +1488,22 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1489,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="AC7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1551,19 +1589,22 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61">
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1587,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="AC8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1599,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1649,19 +1690,22 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61">
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1685,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="AC9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1744,19 +1788,22 @@
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61">
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1780,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="AC10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1842,19 +1889,22 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61">
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1878,7 +1928,7 @@
         <v>70</v>
       </c>
       <c r="AC11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1940,19 +1990,22 @@
       <c r="BC11">
         <v>0</v>
       </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61">
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1976,7 +2029,7 @@
         <v>70</v>
       </c>
       <c r="AC12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1988,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -2038,19 +2091,22 @@
       <c r="BC12">
         <v>0</v>
       </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61">
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2074,7 +2130,7 @@
         <v>70</v>
       </c>
       <c r="AC13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2136,19 +2192,22 @@
       <c r="BC13">
         <v>0</v>
       </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61">
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2172,7 +2231,7 @@
         <v>70</v>
       </c>
       <c r="AC14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2234,19 +2293,22 @@
       <c r="BC14">
         <v>0</v>
       </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61">
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2270,7 +2332,7 @@
         <v>70</v>
       </c>
       <c r="AC15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2332,19 +2394,22 @@
       <c r="BC15">
         <v>0</v>
       </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61">
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2368,7 +2433,7 @@
         <v>70</v>
       </c>
       <c r="AC16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2430,19 +2495,22 @@
       <c r="BC16">
         <v>0</v>
       </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61">
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2466,7 +2534,7 @@
         <v>70</v>
       </c>
       <c r="AC17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2525,19 +2593,22 @@
       <c r="BC17">
         <v>0</v>
       </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61">
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2561,7 +2632,7 @@
         <v>70</v>
       </c>
       <c r="AC18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2623,19 +2694,22 @@
       <c r="BC18">
         <v>0</v>
       </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61">
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2659,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="AC19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2721,19 +2795,22 @@
       <c r="BC19">
         <v>0</v>
       </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61">
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2757,7 +2834,7 @@
         <v>80</v>
       </c>
       <c r="AC20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2769,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -2819,19 +2896,22 @@
       <c r="BC20">
         <v>0</v>
       </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61">
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2855,7 +2935,7 @@
         <v>80</v>
       </c>
       <c r="AC21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2917,19 +2997,22 @@
       <c r="BC21">
         <v>0</v>
       </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61">
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2953,7 +3036,7 @@
         <v>80</v>
       </c>
       <c r="AC22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -3015,19 +3098,22 @@
       <c r="BC22">
         <v>0</v>
       </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61">
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3051,7 +3137,7 @@
         <v>80</v>
       </c>
       <c r="AC23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3113,19 +3199,22 @@
       <c r="BC23">
         <v>0</v>
       </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61">
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3149,7 +3238,7 @@
         <v>80</v>
       </c>
       <c r="AC24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3211,19 +3300,22 @@
       <c r="BC24">
         <v>0</v>
       </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61">
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3247,7 +3339,7 @@
         <v>80</v>
       </c>
       <c r="AC25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3306,19 +3398,22 @@
       <c r="BC25">
         <v>0</v>
       </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61">
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3348,7 +3443,7 @@
         <v>80</v>
       </c>
       <c r="AC26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3410,19 +3505,22 @@
       <c r="BC26">
         <v>0</v>
       </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61">
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3452,7 +3550,7 @@
         <v>85</v>
       </c>
       <c r="AC27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF27">
         <v>0.25</v>
@@ -3514,19 +3612,22 @@
       <c r="BC27">
         <v>0</v>
       </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61">
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3556,7 +3657,7 @@
         <v>90</v>
       </c>
       <c r="AC28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3621,19 +3722,22 @@
       <c r="BC28">
         <v>0</v>
       </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61">
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3663,7 +3767,7 @@
         <v>90</v>
       </c>
       <c r="AC29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF29">
         <v>0.5</v>
@@ -3728,19 +3832,22 @@
       <c r="BC29">
         <v>0</v>
       </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61">
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3770,7 +3877,7 @@
         <v>90</v>
       </c>
       <c r="AC30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3832,19 +3939,22 @@
       <c r="BC30">
         <v>0</v>
       </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61">
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3874,7 +3984,7 @@
         <v>90</v>
       </c>
       <c r="AC31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3936,19 +4046,22 @@
       <c r="BC31">
         <v>0</v>
       </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61">
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3978,7 +4091,7 @@
         <v>90</v>
       </c>
       <c r="AC32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -4034,19 +4147,22 @@
       <c r="BC32">
         <v>0</v>
       </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61">
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -4073,7 +4189,7 @@
         <v>90</v>
       </c>
       <c r="AC33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -4135,19 +4251,22 @@
       <c r="BC33">
         <v>0</v>
       </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61">
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -4174,7 +4293,7 @@
         <v>90</v>
       </c>
       <c r="AC34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4236,19 +4355,22 @@
       <c r="BC34">
         <v>0</v>
       </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61">
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4275,7 +4397,7 @@
         <v>90</v>
       </c>
       <c r="AC35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF35">
         <v>0.35</v>
@@ -4340,19 +4462,22 @@
       <c r="BC35">
         <v>0</v>
       </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:61">
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4379,7 +4504,7 @@
         <v>90</v>
       </c>
       <c r="AC36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4438,19 +4563,22 @@
       <c r="BC36">
         <v>0</v>
       </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:61">
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4483,7 +4611,7 @@
         <v>100</v>
       </c>
       <c r="AC37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF37">
         <v>0.75</v>
@@ -4548,19 +4676,22 @@
       <c r="BC37">
         <v>0</v>
       </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:61">
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4596,7 +4727,7 @@
         <v>110</v>
       </c>
       <c r="AC38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF38">
         <v>0.75</v>
@@ -4658,19 +4789,22 @@
       <c r="BC38">
         <v>0</v>
       </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:61">
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4700,7 +4834,7 @@
         <v>130</v>
       </c>
       <c r="AC39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF39">
         <v>0.75</v>
@@ -4729,9 +4863,6 @@
       <c r="AP39">
         <v>30</v>
       </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
       <c r="AS39">
         <v>0</v>
       </c>
@@ -4762,19 +4893,22 @@
       <c r="BC39">
         <v>0</v>
       </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="3:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:61">
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4804,7 +4938,7 @@
         <v>90</v>
       </c>
       <c r="AC40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4866,10 +5000,69 @@
       <c r="BC40">
         <v>0</v>
       </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61">
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>2500</v>
+      </c>
+      <c r="M41">
+        <v>24</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>15</v>
+      </c>
+      <c r="AB41">
+        <v>70</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG41">
+        <v>1</v>
+      </c>
+      <c r="BH41">
+        <v>1</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/items/Alchemy.xlsx
+++ b/resources/data-imports/items/Alchemy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -401,7 +401,25 @@
     <t>Simple Blessed Oil</t>
   </si>
   <si>
-    <t>A simple blessed oil that can be applied to items to give specific stat bonuses. Having multiple stacks of holy oil on multiple items increases a characters holy bonus which can help with enemies in Hell and Purgatory. Holy oils can only be used at the Purgatory Smiths House and will as a small % of stat increase as well as Devoidance % increase. Holy items can also increase your resistance to Voidance and Devoidance as well as reduce enemies Voidance and Devoidance.</t>
+    <t>These items can only be used on other items and will increase the amount of stats and devouring darkness with the more you apply. These will create what are known as Holy Stacks, the more stacks you have the more your Holy Bonus will go up, which is seen on the character sheet beside Devouring Darkness/Light. Having a high Holy Bonus gives other benefits as well that helps to fight monsters in purgatory and farm Copper Coins.</t>
+  </si>
+  <si>
+    <t>Twice Blessed Church Oil</t>
+  </si>
+  <si>
+    <t>Enchanted Prayer Oil</t>
+  </si>
+  <si>
+    <t>Angelic Oil of Hope</t>
+  </si>
+  <si>
+    <t>Heavens Guardian Oil</t>
+  </si>
+  <si>
+    <t>Enchanted Tea</t>
+  </si>
+  <si>
+    <t>Watch your stats increase even higher and higher ....</t>
   </si>
 </sst>
 </file>
@@ -737,7 +755,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BI41"/>
+  <dimension ref="A1:BI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +768,7 @@
     <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="29" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="556" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="507" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
@@ -5005,6 +5023,9 @@
       </c>
     </row>
     <row r="41" spans="1:61">
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41" t="s">
         <v>127</v>
       </c>
@@ -5041,6 +5062,9 @@
       <c r="AC41" t="s">
         <v>62</v>
       </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
       <c r="BG41">
         <v>1</v>
       </c>
@@ -5048,6 +5072,286 @@
         <v>1</v>
       </c>
       <c r="BI41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>21000</v>
+      </c>
+      <c r="M42">
+        <v>110</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>50</v>
+      </c>
+      <c r="AB42">
+        <v>90</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="BG42">
+        <v>1</v>
+      </c>
+      <c r="BH42">
+        <v>2</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>28000</v>
+      </c>
+      <c r="M43">
+        <v>130</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>75</v>
+      </c>
+      <c r="AB43">
+        <v>90</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="BG43">
+        <v>1</v>
+      </c>
+      <c r="BH43">
+        <v>3</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>35000</v>
+      </c>
+      <c r="M44">
+        <v>150</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>130</v>
+      </c>
+      <c r="AB44">
+        <v>140</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="BG44">
+        <v>1</v>
+      </c>
+      <c r="BH44">
+        <v>4</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>45000</v>
+      </c>
+      <c r="M45">
+        <v>200</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>160</v>
+      </c>
+      <c r="AB45">
+        <v>170</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="BG45">
+        <v>1</v>
+      </c>
+      <c r="BH45">
+        <v>5</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>40000</v>
+      </c>
+      <c r="M46">
+        <v>180</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>140</v>
+      </c>
+      <c r="AB46">
+        <v>150</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>35</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>0.7</v>
+      </c>
+      <c r="BI46">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/items/Alchemy.xlsx
+++ b/resources/data-imports/items/Alchemy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -420,6 +420,30 @@
   </si>
   <si>
     <t>Watch your stats increase even higher and higher ....</t>
+  </si>
+  <si>
+    <t>Honey Dew Beer</t>
+  </si>
+  <si>
+    <t>Raise your stats for a longer period of time. Great for skill training too.</t>
+  </si>
+  <si>
+    <t>End of Days</t>
+  </si>
+  <si>
+    <t>This item, just one, completely devastates a kingdom.</t>
+  </si>
+  <si>
+    <t>Tear of the Gods</t>
+  </si>
+  <si>
+    <t>The ultimate item that gives the ultimate boosts.</t>
+  </si>
+  <si>
+    <t>Thunderous Clap</t>
+  </si>
+  <si>
+    <t>If you thought Tear of the Gods was powerful wait till you get ahold of this!</t>
   </si>
 </sst>
 </file>
@@ -755,7 +779,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BI46"/>
+  <dimension ref="A1:BI50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,6 +1105,12 @@
       <c r="AR2">
         <v>0.008</v>
       </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
       <c r="AW2">
         <v>0</v>
       </c>
@@ -4881,6 +4911,9 @@
       <c r="AP39">
         <v>30</v>
       </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
       <c r="AS39">
         <v>0</v>
       </c>
@@ -5062,8 +5095,56 @@
       <c r="AC41" t="s">
         <v>62</v>
       </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
       <c r="AL41">
         <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
       </c>
       <c r="BG41">
         <v>1</v>
@@ -5115,8 +5196,56 @@
       <c r="AC42" t="s">
         <v>62</v>
       </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
       <c r="AL42">
         <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
       </c>
       <c r="BG42">
         <v>1</v>
@@ -5168,8 +5297,56 @@
       <c r="AC43" t="s">
         <v>62</v>
       </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
       <c r="AL43">
         <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
       </c>
       <c r="BG43">
         <v>1</v>
@@ -5221,8 +5398,56 @@
       <c r="AC44" t="s">
         <v>62</v>
       </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
       <c r="AL44">
         <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
       </c>
       <c r="BG44">
         <v>1</v>
@@ -5274,8 +5499,56 @@
       <c r="AC45" t="s">
         <v>62</v>
       </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
       <c r="AL45">
         <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
       </c>
       <c r="BG45">
         <v>1</v>
@@ -5336,11 +5609,29 @@
       <c r="AC46" t="s">
         <v>62</v>
       </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
         <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
       </c>
       <c r="AP46">
         <v>35</v>
@@ -5351,7 +5642,339 @@
       <c r="AR46">
         <v>0.7</v>
       </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
       <c r="BI46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>136</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>50000</v>
+      </c>
+      <c r="M47">
+        <v>400</v>
+      </c>
+      <c r="N47">
+        <v>0.25</v>
+      </c>
+      <c r="O47">
+        <v>0.25</v>
+      </c>
+      <c r="P47">
+        <v>0.25</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>170</v>
+      </c>
+      <c r="AB47">
+        <v>180</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF47">
+        <v>0.75</v>
+      </c>
+      <c r="AG47">
+        <v>0.75</v>
+      </c>
+      <c r="AH47">
+        <v>0.75</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>50</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1.2</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>1</v>
+      </c>
+      <c r="AU47">
+        <v>2</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>55000</v>
+      </c>
+      <c r="M48">
+        <v>500</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>180</v>
+      </c>
+      <c r="AB48">
+        <v>190</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" t="s">
+        <v>140</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>60000</v>
+      </c>
+      <c r="M49">
+        <v>600</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>190</v>
+      </c>
+      <c r="AB49">
+        <v>200</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>60</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>2</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61">
+      <c r="D50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>70000</v>
+      </c>
+      <c r="M50">
+        <v>700</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50">
+        <v>3</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>200</v>
+      </c>
+      <c r="AB50">
+        <v>201</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>70</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>3</v>
+      </c>
+      <c r="BI50">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/items/Alchemy.xlsx
+++ b/resources/data-imports/items/Alchemy.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE558A5F-4D1A-C242-A492-B727E3078720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -461,14 +478,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -483,21 +495,33 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -787,86 +811,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="M11" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="507" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="62" max="62" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="63" max="63" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="64" max="64" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="65" max="65" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="507" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>65596</v>
       </c>
@@ -1113,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>65597</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65598</v>
       </c>
@@ -1225,7 +1241,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>65599</v>
       </c>
@@ -1281,7 +1297,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>65600</v>
       </c>
@@ -1337,7 +1353,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>65601</v>
       </c>
@@ -1393,7 +1409,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>65602</v>
       </c>
@@ -1431,7 +1447,7 @@
         <v>66</v>
       </c>
       <c r="AI8">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AL8">
         <v>1</v>
@@ -1449,7 +1465,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>65603</v>
       </c>
@@ -1499,7 +1515,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>65604</v>
       </c>
@@ -1552,7 +1568,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>65605</v>
       </c>
@@ -1608,7 +1624,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>65606</v>
       </c>
@@ -1646,7 +1662,7 @@
         <v>66</v>
       </c>
       <c r="AI12">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AL12">
         <v>1</v>
@@ -1664,7 +1680,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>65607</v>
       </c>
@@ -1717,7 +1733,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>65608</v>
       </c>
@@ -1773,7 +1789,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>65609</v>
       </c>
@@ -1829,7 +1845,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>65610</v>
       </c>
@@ -1885,36 +1901,33 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:65">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>65611</v>
+        <v>308797</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="K17">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
       <c r="AA17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB17">
         <v>70</v>
@@ -1925,37 +1938,34 @@
       <c r="AL17">
         <v>1</v>
       </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:65">
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>65612</v>
+        <v>65611</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K18">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -1964,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB18">
         <v>70</v>
@@ -1978,37 +1988,34 @@
       <c r="AM18">
         <v>1</v>
       </c>
-      <c r="AP18">
-        <v>20</v>
-      </c>
-      <c r="AQ18">
-        <v>1</v>
-      </c>
-      <c r="AR18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:65">
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>65613</v>
+        <v>65612</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -2017,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB19">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC19" t="s">
         <v>66</v>
@@ -2034,31 +2041,28 @@
       <c r="AP19">
         <v>20</v>
       </c>
-      <c r="AS19">
-        <v>4</v>
-      </c>
-      <c r="AT19">
-        <v>0.1</v>
-      </c>
-      <c r="AU19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:65">
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>65614</v>
+        <v>65613</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K20">
         <v>8000</v>
@@ -2081,9 +2085,6 @@
       <c r="AC20" t="s">
         <v>66</v>
       </c>
-      <c r="AI20">
-        <v>0.009</v>
-      </c>
       <c r="AL20">
         <v>1</v>
       </c>
@@ -2094,27 +2095,30 @@
         <v>20</v>
       </c>
       <c r="AS20">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AT20">
+        <v>0.1</v>
       </c>
       <c r="AU20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:65">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>65615</v>
+        <v>65614</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K21">
         <v>8000</v>
@@ -2129,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB21">
         <v>80</v>
@@ -2137,6 +2141,9 @@
       <c r="AC21" t="s">
         <v>66</v>
       </c>
+      <c r="AI21">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="AL21">
         <v>1</v>
       </c>
@@ -2146,28 +2153,28 @@
       <c r="AP21">
         <v>20</v>
       </c>
-      <c r="AT21">
-        <v>0.01</v>
+      <c r="AS21">
+        <v>5</v>
       </c>
       <c r="AU21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:65">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>65616</v>
+        <v>65615</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K22">
         <v>8000</v>
@@ -2182,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="AA22">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB22">
         <v>80</v>
@@ -2199,9 +2206,6 @@
       <c r="AP22">
         <v>20</v>
       </c>
-      <c r="AS22">
-        <v>1</v>
-      </c>
       <c r="AT22">
         <v>0.01</v>
       </c>
@@ -2209,21 +2213,21 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:65">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>65617</v>
+        <v>65616</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K23">
         <v>8000</v>
@@ -2238,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="AA23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB23">
         <v>80</v>
@@ -2256,7 +2260,7 @@
         <v>20</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>0.01</v>
@@ -2265,21 +2269,21 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:65">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>65618</v>
+        <v>65617</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
         <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K24">
         <v>8000</v>
@@ -2294,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AB24">
         <v>80</v>
@@ -2312,7 +2316,7 @@
         <v>20</v>
       </c>
       <c r="AS24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <v>0.01</v>
@@ -2321,27 +2325,27 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>65619</v>
+        <v>65618</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L25">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -2350,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AB25">
         <v>80</v>
@@ -2364,14 +2368,20 @@
       <c r="AM25">
         <v>1</v>
       </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:65">
+      <c r="AP25">
+        <v>20</v>
+      </c>
+      <c r="AS25">
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <v>0.01</v>
+      </c>
+      <c r="AU25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>69935</v>
       </c>
@@ -2427,7 +2437,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>69936</v>
       </c>
@@ -2495,7 +2505,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>69937</v>
       </c>
@@ -2557,27 +2567,27 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>69938</v>
+        <v>65619</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L29">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -2589,75 +2599,54 @@
         <v>50</v>
       </c>
       <c r="AB29">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s">
         <v>66</v>
       </c>
-      <c r="AF29">
-        <v>0.5</v>
-      </c>
-      <c r="AG29">
-        <v>0.5</v>
-      </c>
-      <c r="AH29">
-        <v>0.5</v>
-      </c>
-      <c r="AI29">
-        <v>0.5</v>
-      </c>
-      <c r="AJ29">
-        <v>0.5</v>
-      </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
         <v>1</v>
       </c>
-      <c r="AP29">
-        <v>30</v>
-      </c>
-      <c r="AQ29">
-        <v>1</v>
-      </c>
-      <c r="AR29">
-        <v>0.15</v>
-      </c>
-      <c r="AT29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:65">
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>155359</v>
+        <v>69938</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>66</v>
       </c>
       <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30">
+        <v>21000</v>
+      </c>
+      <c r="L30">
         <v>110</v>
       </c>
-      <c r="K30">
-        <v>24000</v>
-      </c>
-      <c r="L30">
-        <v>120</v>
-      </c>
-      <c r="S30">
-        <v>0.35</v>
-      </c>
       <c r="Y30">
         <v>1</v>
       </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
       <c r="AA30">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AB30">
         <v>90</v>
@@ -2665,6 +2654,21 @@
       <c r="AC30" t="s">
         <v>66</v>
       </c>
+      <c r="AF30">
+        <v>0.5</v>
+      </c>
+      <c r="AG30">
+        <v>0.5</v>
+      </c>
+      <c r="AH30">
+        <v>0.5</v>
+      </c>
+      <c r="AI30">
+        <v>0.5</v>
+      </c>
+      <c r="AJ30">
+        <v>0.5</v>
+      </c>
       <c r="AL30">
         <v>1</v>
       </c>
@@ -2672,42 +2676,45 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:65">
+      <c r="AR30">
+        <v>0.15</v>
+      </c>
+      <c r="AT30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>155360</v>
+        <v>308798</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
         <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="K31">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L31">
-        <v>120</v>
-      </c>
-      <c r="U31">
-        <v>0.35</v>
+        <v>110</v>
       </c>
       <c r="Y31">
         <v>1</v>
       </c>
       <c r="AA31">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB31">
         <v>90</v>
@@ -2718,31 +2725,28 @@
       <c r="AL31">
         <v>1</v>
       </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AP31">
-        <v>15</v>
-      </c>
-      <c r="AQ31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:65">
+      <c r="BG31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>155362</v>
+        <v>155359</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K32">
         <v>24000</v>
@@ -2750,7 +2754,7 @@
       <c r="L32">
         <v>120</v>
       </c>
-      <c r="T32">
+      <c r="S32">
         <v>0.35</v>
       </c>
       <c r="Y32">
@@ -2778,21 +2782,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:65">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>155363</v>
+        <v>155360</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K33">
         <v>24000</v>
@@ -2800,14 +2804,14 @@
       <c r="L33">
         <v>120</v>
       </c>
-      <c r="W33">
+      <c r="U33">
         <v>0.35</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="AA33">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB33">
         <v>90</v>
@@ -2828,21 +2832,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:65">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>155364</v>
+        <v>155362</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K34">
         <v>24000</v>
@@ -2850,14 +2854,14 @@
       <c r="L34">
         <v>120</v>
       </c>
-      <c r="V34">
+      <c r="T34">
         <v>0.35</v>
       </c>
       <c r="Y34">
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB34">
         <v>90</v>
@@ -2878,33 +2882,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:65">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>155365</v>
+        <v>155363</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>66</v>
       </c>
       <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35">
+        <v>24000</v>
+      </c>
+      <c r="L35">
         <v>120</v>
       </c>
-      <c r="K35">
-        <v>25000</v>
-      </c>
-      <c r="L35">
-        <v>128</v>
+      <c r="W35">
+        <v>0.35</v>
       </c>
       <c r="Y35">
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AB35">
         <v>90</v>
@@ -2912,64 +2919,49 @@
       <c r="AC35" t="s">
         <v>66</v>
       </c>
-      <c r="AF35">
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>15</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>155364</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36">
+        <v>24000</v>
+      </c>
+      <c r="L36">
+        <v>120</v>
+      </c>
+      <c r="V36">
         <v>0.35</v>
       </c>
-      <c r="AG35">
-        <v>0.35</v>
-      </c>
-      <c r="AH35">
-        <v>0.35</v>
-      </c>
-      <c r="AL35">
-        <v>1</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AP35">
-        <v>30</v>
-      </c>
-      <c r="AQ35">
-        <v>1</v>
-      </c>
-      <c r="AR35">
-        <v>0.6</v>
-      </c>
-      <c r="AT35">
-        <v>0.2</v>
-      </c>
-      <c r="AU35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:65">
-      <c r="A36">
-        <v>155366</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" t="s">
-        <v>122</v>
-      </c>
-      <c r="K36">
-        <v>28000</v>
-      </c>
-      <c r="L36">
-        <v>130</v>
-      </c>
       <c r="Y36">
         <v>1</v>
       </c>
       <c r="AA36">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AB36">
         <v>90</v>
@@ -2977,9 +2969,6 @@
       <c r="AC36" t="s">
         <v>66</v>
       </c>
-      <c r="AH36">
-        <v>0.75</v>
-      </c>
       <c r="AL36">
         <v>1</v>
       </c>
@@ -2987,45 +2976,42 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:65">
+        <v>15</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>155367</v>
+        <v>308036</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
         <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K37">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L37">
-        <v>130</v>
-      </c>
-      <c r="T37">
-        <v>0.75</v>
-      </c>
-      <c r="U37">
-        <v>0.75</v>
-      </c>
-      <c r="W37">
-        <v>0.75</v>
+        <v>120</v>
+      </c>
+      <c r="R37">
+        <v>0.35</v>
       </c>
       <c r="Y37">
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AB37">
         <v>90</v>
@@ -3033,9 +3019,6 @@
       <c r="AC37" t="s">
         <v>66</v>
       </c>
-      <c r="AF37">
-        <v>0.75</v>
-      </c>
       <c r="AL37">
         <v>1</v>
       </c>
@@ -3043,57 +3026,54 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AQ37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:65">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>155368</v>
+        <v>155365</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
         <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K38">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L38">
-        <v>130</v>
-      </c>
-      <c r="Q38">
-        <v>0.75</v>
-      </c>
-      <c r="R38">
-        <v>0.75</v>
-      </c>
-      <c r="S38">
-        <v>0.75</v>
+        <v>128</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB38">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AC38" t="s">
         <v>66</v>
       </c>
       <c r="AF38">
-        <v>0.75</v>
+        <v>0.35</v>
+      </c>
+      <c r="AG38">
+        <v>0.35</v>
+      </c>
+      <c r="AH38">
+        <v>0.35</v>
       </c>
       <c r="AL38">
         <v>1</v>
@@ -3104,22 +3084,34 @@
       <c r="AP38">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:65">
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>0.6</v>
+      </c>
+      <c r="AT38">
+        <v>0.2</v>
+      </c>
+      <c r="AU38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>155369</v>
+        <v>155367</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K39">
         <v>28000</v>
@@ -3127,20 +3119,23 @@
       <c r="L39">
         <v>130</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.75</v>
       </c>
-      <c r="V39">
+      <c r="U39">
         <v>0.75</v>
       </c>
+      <c r="W39">
+        <v>0.75</v>
+      </c>
       <c r="Y39">
         <v>1</v>
       </c>
       <c r="AA39">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AB39">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AC39" t="s">
         <v>66</v>
@@ -3157,37 +3152,37 @@
       <c r="AP39">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:65">
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>308036</v>
+        <v>155366</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
       </c>
       <c r="E40" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40">
+        <v>28000</v>
+      </c>
+      <c r="L40">
         <v>130</v>
       </c>
-      <c r="K40">
-        <v>24000</v>
-      </c>
-      <c r="L40">
-        <v>120</v>
-      </c>
-      <c r="R40">
-        <v>0.35</v>
-      </c>
       <c r="Y40">
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AB40">
         <v>90</v>
@@ -3195,6 +3190,9 @@
       <c r="AC40" t="s">
         <v>66</v>
       </c>
+      <c r="AH40">
+        <v>0.75</v>
+      </c>
       <c r="AL40">
         <v>1</v>
       </c>
@@ -3202,21 +3200,18 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>15</v>
-      </c>
-      <c r="AQ40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>308797</v>
+        <v>308799</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
         <v>66</v>
@@ -3225,19 +3220,19 @@
         <v>132</v>
       </c>
       <c r="K41">
-        <v>2500</v>
+        <v>28000</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="Y41">
         <v>1</v>
       </c>
       <c r="AA41">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="AB41">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AC41" t="s">
         <v>66</v>
@@ -3249,68 +3244,80 @@
         <v>1</v>
       </c>
       <c r="BH41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>308798</v>
+        <v>155368</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
         <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K42">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="L42">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="Q42">
+        <v>0.75</v>
+      </c>
+      <c r="R42">
+        <v>0.75</v>
+      </c>
+      <c r="S42">
+        <v>0.75</v>
       </c>
       <c r="Y42">
         <v>1</v>
       </c>
       <c r="AA42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AB42">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AC42" t="s">
         <v>66</v>
       </c>
+      <c r="AF42">
+        <v>0.75</v>
+      </c>
       <c r="AL42">
         <v>1</v>
       </c>
-      <c r="BG42">
-        <v>1</v>
-      </c>
-      <c r="BH42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:65">
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>308799</v>
+        <v>155369</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
         <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K43">
         <v>28000</v>
@@ -3318,29 +3325,38 @@
       <c r="L43">
         <v>130</v>
       </c>
+      <c r="S43">
+        <v>0.75</v>
+      </c>
+      <c r="V43">
+        <v>0.75</v>
+      </c>
       <c r="Y43">
         <v>1</v>
       </c>
       <c r="AA43">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB43">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AC43" t="s">
         <v>66</v>
       </c>
+      <c r="AF43">
+        <v>0.75</v>
+      </c>
       <c r="AL43">
         <v>1</v>
       </c>
-      <c r="BG43">
-        <v>1</v>
-      </c>
-      <c r="BH43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:65">
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>308800</v>
       </c>
@@ -3384,110 +3400,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:65">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>308802</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45">
+        <v>40000</v>
+      </c>
+      <c r="L45">
+        <v>180</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>140</v>
+      </c>
+      <c r="AB45">
+        <v>160</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>35</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>308801</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
         <v>132</v>
       </c>
-      <c r="K45">
+      <c r="K46">
         <v>45000</v>
       </c>
-      <c r="L45">
+      <c r="L46">
         <v>200</v>
       </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-      <c r="AA45">
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
         <v>160</v>
       </c>
-      <c r="AB45">
+      <c r="AB46">
         <v>170</v>
       </c>
-      <c r="AC45" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>1</v>
-      </c>
-      <c r="BH45">
+      <c r="AC46" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="BG46">
+        <v>1</v>
+      </c>
+      <c r="BH46">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:65">
-      <c r="A46">
-        <v>308802</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" t="s">
-        <v>138</v>
-      </c>
-      <c r="K46">
-        <v>40000</v>
-      </c>
-      <c r="L46">
-        <v>180</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
-        <v>1</v>
-      </c>
-      <c r="AA46">
-        <v>140</v>
-      </c>
-      <c r="AB46">
-        <v>160</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL46">
-        <v>1</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AP46">
-        <v>35</v>
-      </c>
-      <c r="AQ46">
-        <v>1</v>
-      </c>
-      <c r="AR46">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:65">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>308803</v>
       </c>
@@ -3561,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:65">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>308804</v>
       </c>
@@ -3608,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:65">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>308805</v>
       </c>
@@ -3688,7 +3704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:65">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>308806</v>
       </c>
@@ -3766,18 +3782,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BM50">
+    <sortCondition ref="AA1:AA50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>